--- a/biology/Zoologie/Empididae/Empididae.xlsx
+++ b/biology/Zoologie/Empididae/Empididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Empididae forment une famille d'insectes diptères brachycères : ce sont des mouches prédatrices à longues pattes et trompe souvent bien développée, comptant de très nombreuses espèces en Europe. Leurs mœurs nuptiales sont fascinantes. La rencontre des sexes a lieu généralement au cours d'un vol nuptial en essaim. Chez nombre d'espèces, le mâle apporte à la femelle un cadeau en guise de prélude à l'accouplement. Il s'agit le plus souvent d'un petit insecte que la femelle dévorera durant l'accouplement. Chez certaines espèces, l'insecte est "emballé" dans un cocon soyeux, alors que chez d'autres le cocon ne contient pas d'insecte mais devient lui-même le cadeau; chez d'autres enfin, un petit pétale de fleur blanche peut tenir lieu de présent. On peut donc observer chez les Empididae les différents stades conduisant à une ritualisation de l'offrande nuptiale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 févr. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 févr. 2013) :
 Brachystomatinae
 Clinocerinae
 Empidinae
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 févr. 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 févr. 2013) :
 genre Achelipoda
 genre Adipsomyia
 genre Afroclinocera
@@ -646,10 +662,12 @@
           <t>Liste des genres présents en Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon Fauna Europea[3], 28 genres sont représentés en Europe, qui totalisent 806 espèces:
+Selon Fauna Europea, 28 genres sont représentés en Europe, qui totalisent 806 espèces:
 Anthepiscopus (4 espèces)
 Bergenstammia (10 espèces)
 Brachystoma (2 espèces)
